--- a/дом_раб_6-2тест-кейса.xlsx
+++ b/дом_раб_6-2тест-кейса.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="Workbook________"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA_тестер\домашка\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA_тестер\GitHub\My_dav_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0388816-0B5A-4475-AC1D-33FC6BE9F5FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF2D510-6496-49DD-BFAA-204379FD5BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="0" windowWidth="19740" windowHeight="15420" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="0" windowWidth="23070" windowHeight="15420" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="6" state="hidden" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
   <si>
     <t>passed</t>
   </si>
@@ -415,12 +415,15 @@
   <si>
     <t>Откроется всплывающее окно-меню "создать трансляцию" с подсказками.</t>
   </si>
+  <si>
+    <t>пройден</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +636,33 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -767,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -857,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -944,6 +971,21 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -959,20 +1001,35 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1371,13 +1428,13 @@
   <dimension ref="A1:DT58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" customWidth="1"/>
@@ -1390,7 +1447,7 @@
     <col min="9" max="9" width="5.42578125" customWidth="1"/>
     <col min="10" max="10" width="1.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="82" customWidth="1"/>
     <col min="13" max="13" width="2.140625" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="2.140625" customWidth="1"/>
@@ -1416,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="K1" s="10"/>
-      <c r="L1" s="15">
+      <c r="L1" s="73">
         <f>COUNTIF(L$8:L$39,"failed")</f>
         <v>0</v>
       </c>
@@ -1461,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="10"/>
-      <c r="L2" s="16">
+      <c r="L2" s="74">
         <f>COUNTIF(L$8:L$39,"passed")</f>
         <v>0</v>
       </c>
@@ -1506,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="10"/>
       <c r="N3" s="21"/>
       <c r="O3" s="10"/>
@@ -1536,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="18"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="10"/>
       <c r="O4" s="10"/>
       <c r="Q4" s="10"/>
@@ -1562,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="76" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="10"/>
@@ -1590,43 +1647,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="64"/>
-      <c r="G6" s="69" t="s">
+      <c r="F6" s="68"/>
+      <c r="G6" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="72"/>
+      <c r="J6" s="64"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="71" t="s">
+      <c r="L6" s="77" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="71" t="s">
+      <c r="N6" s="63" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="71"/>
+      <c r="P6" s="63"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="71"/>
+      <c r="R6" s="63"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="71"/>
+      <c r="T6" s="63"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1636,29 +1693,29 @@
     </row>
     <row r="7" spans="1:124" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="69"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="73"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="72"/>
+      <c r="J7" s="65"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="71"/>
+      <c r="L7" s="77"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="71"/>
+      <c r="N7" s="63"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="71"/>
+      <c r="P7" s="63"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="71"/>
+      <c r="R7" s="63"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="71"/>
+      <c r="T7" s="63"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1671,7 +1728,7 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1688,7 +1745,9 @@
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="79" t="s">
+        <v>106</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="5"/>
       <c r="O8" s="10"/>
@@ -1724,7 +1783,9 @@
       <c r="I9" s="27"/>
       <c r="J9" s="19"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="79" t="s">
+        <v>106</v>
+      </c>
       <c r="M9" s="10"/>
       <c r="N9" s="5"/>
       <c r="O9" s="10"/>
@@ -1760,7 +1821,9 @@
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="79" t="s">
+        <v>106</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="5"/>
       <c r="O10" s="10"/>
@@ -1796,119 +1859,121 @@
       <c r="I11" s="31"/>
       <c r="J11" s="30"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="35"/>
-      <c r="AD11" s="34"/>
-      <c r="AE11" s="35"/>
-      <c r="AF11" s="34"/>
-      <c r="AG11" s="35"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="35"/>
-      <c r="AJ11" s="34"/>
-      <c r="AK11" s="35"/>
-      <c r="AL11" s="34"/>
-      <c r="AM11" s="35"/>
-      <c r="AN11" s="34"/>
-      <c r="AO11" s="35"/>
-      <c r="AP11" s="34"/>
-      <c r="AQ11" s="35"/>
-      <c r="AR11" s="34"/>
-      <c r="AS11" s="35"/>
-      <c r="AT11" s="34"/>
-      <c r="AU11" s="35"/>
-      <c r="AV11" s="34"/>
-      <c r="AW11" s="35"/>
-      <c r="AX11" s="34"/>
-      <c r="AY11" s="35"/>
-      <c r="AZ11" s="34"/>
-      <c r="BA11" s="35"/>
-      <c r="BB11" s="34"/>
-      <c r="BC11" s="35"/>
-      <c r="BD11" s="34"/>
-      <c r="BE11" s="35"/>
-      <c r="BF11" s="34"/>
-      <c r="BG11" s="35"/>
-      <c r="BH11" s="34"/>
-      <c r="BI11" s="35"/>
-      <c r="BJ11" s="34"/>
-      <c r="BK11" s="35"/>
-      <c r="BL11" s="34"/>
-      <c r="BM11" s="35"/>
-      <c r="BN11" s="34"/>
-      <c r="BO11" s="35"/>
-      <c r="BP11" s="34"/>
-      <c r="BQ11" s="35"/>
-      <c r="BR11" s="34"/>
-      <c r="BS11" s="35"/>
-      <c r="BT11" s="34"/>
-      <c r="BU11" s="35"/>
-      <c r="BV11" s="34"/>
-      <c r="BW11" s="35"/>
-      <c r="BX11" s="34"/>
-      <c r="BY11" s="35"/>
-      <c r="BZ11" s="36"/>
-      <c r="CA11" s="35"/>
-      <c r="CB11" s="34"/>
-      <c r="CC11" s="35"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="35"/>
-      <c r="CF11" s="34"/>
-      <c r="CG11" s="35"/>
-      <c r="CH11" s="36"/>
-      <c r="CI11" s="35"/>
-      <c r="CJ11" s="34"/>
-      <c r="CK11" s="35"/>
-      <c r="CL11" s="34"/>
-      <c r="CM11" s="35"/>
-      <c r="CN11" s="34"/>
-      <c r="CO11" s="35"/>
-      <c r="CP11" s="34"/>
-      <c r="CQ11" s="35"/>
-      <c r="CR11" s="34"/>
-      <c r="CS11" s="35"/>
-      <c r="CT11" s="34"/>
-      <c r="CU11" s="35"/>
-      <c r="CV11" s="34"/>
-      <c r="CW11" s="35"/>
-      <c r="CX11" s="34"/>
-      <c r="CY11" s="33"/>
-      <c r="CZ11" s="34"/>
-      <c r="DA11" s="33"/>
-      <c r="DB11" s="34"/>
-      <c r="DC11" s="33"/>
-      <c r="DD11" s="34"/>
-      <c r="DE11" s="33"/>
-      <c r="DF11" s="34"/>
-      <c r="DG11" s="33"/>
-      <c r="DH11" s="34"/>
-      <c r="DI11" s="33"/>
-      <c r="DJ11" s="34"/>
-      <c r="DK11" s="34"/>
-      <c r="DL11" s="34"/>
-      <c r="DM11" s="34"/>
-      <c r="DN11" s="38"/>
-      <c r="DO11" s="34"/>
-      <c r="DP11" s="39"/>
-      <c r="DQ11" s="39"/>
-      <c r="DR11" s="39"/>
-      <c r="DS11" s="39"/>
-      <c r="DT11" s="39"/>
+      <c r="L11" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="33"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="33"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="33"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="33"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="33"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="33"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="33"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="33"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="33"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="33"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="33"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="33"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="33"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="33"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="33"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="33"/>
+      <c r="BI11" s="34"/>
+      <c r="BJ11" s="33"/>
+      <c r="BK11" s="34"/>
+      <c r="BL11" s="33"/>
+      <c r="BM11" s="34"/>
+      <c r="BN11" s="33"/>
+      <c r="BO11" s="34"/>
+      <c r="BP11" s="33"/>
+      <c r="BQ11" s="34"/>
+      <c r="BR11" s="33"/>
+      <c r="BS11" s="34"/>
+      <c r="BT11" s="33"/>
+      <c r="BU11" s="34"/>
+      <c r="BV11" s="33"/>
+      <c r="BW11" s="34"/>
+      <c r="BX11" s="33"/>
+      <c r="BY11" s="34"/>
+      <c r="BZ11" s="35"/>
+      <c r="CA11" s="34"/>
+      <c r="CB11" s="33"/>
+      <c r="CC11" s="34"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="34"/>
+      <c r="CF11" s="33"/>
+      <c r="CG11" s="34"/>
+      <c r="CH11" s="35"/>
+      <c r="CI11" s="34"/>
+      <c r="CJ11" s="33"/>
+      <c r="CK11" s="34"/>
+      <c r="CL11" s="33"/>
+      <c r="CM11" s="34"/>
+      <c r="CN11" s="33"/>
+      <c r="CO11" s="34"/>
+      <c r="CP11" s="33"/>
+      <c r="CQ11" s="34"/>
+      <c r="CR11" s="33"/>
+      <c r="CS11" s="34"/>
+      <c r="CT11" s="33"/>
+      <c r="CU11" s="34"/>
+      <c r="CV11" s="33"/>
+      <c r="CW11" s="34"/>
+      <c r="CX11" s="33"/>
+      <c r="CY11" s="32"/>
+      <c r="CZ11" s="33"/>
+      <c r="DA11" s="32"/>
+      <c r="DB11" s="33"/>
+      <c r="DC11" s="32"/>
+      <c r="DD11" s="33"/>
+      <c r="DE11" s="32"/>
+      <c r="DF11" s="33"/>
+      <c r="DG11" s="32"/>
+      <c r="DH11" s="33"/>
+      <c r="DI11" s="32"/>
+      <c r="DJ11" s="33"/>
+      <c r="DK11" s="33"/>
+      <c r="DL11" s="33"/>
+      <c r="DM11" s="33"/>
+      <c r="DN11" s="37"/>
+      <c r="DO11" s="33"/>
+      <c r="DP11" s="38"/>
+      <c r="DQ11" s="38"/>
+      <c r="DR11" s="38"/>
+      <c r="DS11" s="38"/>
+      <c r="DT11" s="38"/>
     </row>
     <row r="12" spans="1:124" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
@@ -1930,7 +1995,9 @@
       <c r="I12" s="20"/>
       <c r="J12" s="19"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="79" t="s">
+        <v>106</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="5"/>
       <c r="O12" s="10"/>
@@ -1966,7 +2033,9 @@
       <c r="I13" s="20"/>
       <c r="J13" s="19"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="79" t="s">
+        <v>106</v>
+      </c>
       <c r="M13" s="10"/>
       <c r="N13" s="5"/>
       <c r="O13" s="10"/>
@@ -2002,7 +2071,9 @@
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="79" t="s">
+        <v>106</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="5"/>
       <c r="O14" s="10"/>
@@ -2038,7 +2109,9 @@
       <c r="I15" s="20"/>
       <c r="J15" s="19"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="79" t="s">
+        <v>106</v>
+      </c>
       <c r="M15" s="10"/>
       <c r="N15" s="5"/>
       <c r="O15" s="10"/>
@@ -2074,7 +2147,9 @@
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="79" t="s">
+        <v>106</v>
+      </c>
       <c r="M16" s="10"/>
       <c r="N16" s="5"/>
       <c r="O16" s="10"/>
@@ -2110,7 +2185,9 @@
       <c r="I17" s="20"/>
       <c r="J17" s="19"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="79" t="s">
+        <v>106</v>
+      </c>
       <c r="M17" s="10"/>
       <c r="N17" s="5"/>
       <c r="O17" s="10"/>
@@ -2126,407 +2203,423 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" s="49" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41">
+    <row r="18" spans="1:26" s="48" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="40">
         <v>11</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="42" t="s">
+      <c r="E18" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="41" t="s">
+      <c r="F18" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G18" s="41"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="48"/>
-      <c r="Z18" s="48"/>
-    </row>
-    <row r="19" spans="1:26" s="49" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41">
+      <c r="G18" s="40"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="M18" s="46"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="46"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+    </row>
+    <row r="19" spans="1:26" s="48" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="39"/>
+      <c r="B19" s="40">
         <v>12</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41" t="s">
+      <c r="C19" s="40"/>
+      <c r="D19" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="42" t="s">
+      <c r="E19" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="41"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-    </row>
-    <row r="20" spans="1:26" s="49" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="41">
+      <c r="G19" s="40"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="M19" s="46"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+    </row>
+    <row r="20" spans="1:26" s="48" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="39"/>
+      <c r="B20" s="40">
         <v>13</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41" t="s">
+      <c r="C20" s="40"/>
+      <c r="D20" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="42" t="s">
+      <c r="E20" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="41"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-    </row>
-    <row r="21" spans="1:26" s="49" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41">
+      <c r="G20" s="40"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="M20" s="46"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+    </row>
+    <row r="21" spans="1:26" s="48" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="39"/>
+      <c r="B21" s="40">
         <v>17</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="41" t="s">
+      <c r="D21" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="42" t="s">
+      <c r="E21" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="41"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="45"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="51"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="51"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="51"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="51"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="48"/>
-      <c r="Y21" s="48"/>
-      <c r="Z21" s="48"/>
-    </row>
-    <row r="22" spans="1:26" s="49" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41">
+      <c r="G21" s="40"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="M21" s="46"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+    </row>
+    <row r="22" spans="1:26" s="48" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="39"/>
+      <c r="B22" s="40">
         <v>18</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41" t="s">
+      <c r="C22" s="40"/>
+      <c r="D22" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="42" t="s">
+      <c r="E22" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="41" t="s">
+      <c r="F22" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="G22" s="41"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="45"/>
-      <c r="L22" s="51"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="51"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="51"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="51"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="51"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="48"/>
-      <c r="Y22" s="48"/>
-      <c r="Z22" s="48"/>
-    </row>
-    <row r="23" spans="1:26" s="49" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41">
+      <c r="G22" s="40"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="M22" s="46"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+    </row>
+    <row r="23" spans="1:26" s="48" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40">
         <v>19</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="41" t="s">
+      <c r="F23" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="41"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="45"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="46"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="46"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="48"/>
-      <c r="Y23" s="48"/>
-      <c r="Z23" s="48"/>
-    </row>
-    <row r="24" spans="1:26" s="49" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41">
+      <c r="G23" s="40"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="46"/>
+      <c r="N23" s="45"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+    </row>
+    <row r="24" spans="1:26" s="48" customFormat="1" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="39"/>
+      <c r="B24" s="40">
         <v>20</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="52" t="s">
+      <c r="C24" s="40"/>
+      <c r="D24" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="41"/>
-      <c r="H24" s="43"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="48"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-    </row>
-    <row r="25" spans="1:26" s="49" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="41">
+      <c r="G24" s="40"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="M24" s="46"/>
+      <c r="N24" s="45"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+    </row>
+    <row r="25" spans="1:26" s="48" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="39"/>
+      <c r="B25" s="40">
         <v>21</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="52" t="s">
+      <c r="C25" s="40"/>
+      <c r="D25" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="42" t="s">
+      <c r="E25" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="41"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="48"/>
-      <c r="Y25" s="48"/>
-      <c r="Z25" s="48"/>
-    </row>
-    <row r="26" spans="1:26" s="61" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54">
+      <c r="G25" s="40"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="M25" s="46"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+    </row>
+    <row r="26" spans="1:26" s="60" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="52"/>
+      <c r="B26" s="53">
         <v>22</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="42" t="s">
+      <c r="E26" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="54" t="s">
+      <c r="F26" s="53" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="58"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="58"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="58"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="58"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-    </row>
-    <row r="27" spans="1:26" s="61" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54">
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+    </row>
+    <row r="27" spans="1:26" s="60" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53">
         <v>23</v>
       </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="42" t="s">
+      <c r="E27" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="54"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="63"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-    </row>
-    <row r="28" spans="1:26" s="61" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54">
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="58"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+    </row>
+    <row r="28" spans="1:26" s="60" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="52"/>
+      <c r="B28" s="53">
         <v>24</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="42" t="s">
+      <c r="E28" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F28" s="54" t="s">
+      <c r="F28" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
     </row>
     <row r="29" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
@@ -2534,10 +2627,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="E29" s="41" t="s">
         <v>85</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -2548,7 +2641,7 @@
       <c r="I29" s="20"/>
       <c r="J29" s="19"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="5"/>
+      <c r="L29" s="78"/>
       <c r="M29" s="10"/>
       <c r="N29" s="5"/>
       <c r="O29" s="10"/>
@@ -2564,115 +2657,115 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" s="61" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54">
+    <row r="30" spans="1:26" s="60" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="52"/>
+      <c r="B30" s="53">
         <v>26</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="53"/>
+      <c r="D30" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="42" t="s">
+      <c r="E30" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="F30" s="54" t="s">
+      <c r="F30" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="63"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="63"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-    </row>
-    <row r="31" spans="1:26" s="61" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="54">
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+    </row>
+    <row r="31" spans="1:26" s="60" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="52"/>
+      <c r="B31" s="53">
         <v>27</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54" t="s">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="F31" s="54" t="s">
+      <c r="F31" s="53" t="s">
         <v>92</v>
       </c>
-      <c r="G31" s="54"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="63"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="63"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
-    </row>
-    <row r="32" spans="1:26" s="61" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="54">
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="78"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+    </row>
+    <row r="32" spans="1:26" s="60" customFormat="1" ht="33" x14ac:dyDescent="0.25">
+      <c r="A32" s="52"/>
+      <c r="B32" s="53">
         <v>28</v>
       </c>
-      <c r="C32" s="50" t="s">
+      <c r="C32" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="E32" s="42" t="s">
+      <c r="E32" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G32" s="54"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="63"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="63"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="60"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="58"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
     </row>
     <row r="33" spans="1:26" ht="49.5" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
@@ -2680,13 +2773,13 @@
         <v>29</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="41" t="s">
+      <c r="D33" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="E33" s="42" t="s">
+      <c r="E33" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="54" t="s">
+      <c r="F33" s="53" t="s">
         <v>99</v>
       </c>
       <c r="G33" s="3"/>
@@ -2694,7 +2787,7 @@
       <c r="I33" s="20"/>
       <c r="J33" s="19"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="5"/>
+      <c r="L33" s="78"/>
       <c r="M33" s="10"/>
       <c r="N33" s="5"/>
       <c r="O33" s="10"/>
@@ -2716,10 +2809,10 @@
         <v>30</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E34" s="42" t="s">
+      <c r="E34" s="41" t="s">
         <v>101</v>
       </c>
       <c r="F34" s="3" t="s">
@@ -2730,7 +2823,7 @@
       <c r="I34" s="20"/>
       <c r="J34" s="19"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="5"/>
+      <c r="L34" s="78"/>
       <c r="M34" s="10"/>
       <c r="N34" s="5"/>
       <c r="O34" s="10"/>
@@ -2752,10 +2845,10 @@
         <v>31</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="E35" s="42" t="s">
+      <c r="E35" s="41" t="s">
         <v>104</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -2766,7 +2859,7 @@
       <c r="I35" s="20"/>
       <c r="J35" s="19"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="5"/>
+      <c r="L35" s="78"/>
       <c r="M35" s="10"/>
       <c r="N35" s="5"/>
       <c r="O35" s="10"/>
@@ -2796,7 +2889,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="19"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="5"/>
+      <c r="L36" s="78"/>
       <c r="M36" s="10"/>
       <c r="N36" s="5"/>
       <c r="O36" s="10"/>
@@ -2826,7 +2919,7 @@
       <c r="I37" s="20"/>
       <c r="J37" s="19"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="5"/>
+      <c r="L37" s="78"/>
       <c r="M37" s="10"/>
       <c r="N37" s="5"/>
       <c r="O37" s="10"/>
@@ -2856,7 +2949,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="5"/>
+      <c r="L38" s="78"/>
       <c r="M38" s="10"/>
       <c r="N38" s="5"/>
       <c r="O38" s="10"/>
@@ -2886,7 +2979,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="25"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="5"/>
+      <c r="L39" s="78"/>
       <c r="M39" s="10"/>
       <c r="N39" s="5"/>
       <c r="O39" s="10"/>
@@ -2919,7 +3012,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
+      <c r="L40" s="80"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -2952,7 +3045,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
+      <c r="L41" s="80"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -2985,7 +3078,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
+      <c r="L42" s="80"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -3012,7 +3105,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
+      <c r="L43" s="81"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3039,7 +3132,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
+      <c r="L44" s="81"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3067,7 +3160,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
+      <c r="L45" s="81"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3095,7 +3188,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
+      <c r="L46" s="81"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -3123,7 +3216,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="L47" s="81"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -3151,7 +3244,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
+      <c r="L48" s="81"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -3179,7 +3272,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
+      <c r="L49" s="81"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -3207,7 +3300,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
+      <c r="L50" s="81"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -3235,7 +3328,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
+      <c r="L51" s="81"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -3263,7 +3356,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
+      <c r="L52" s="81"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3291,7 +3384,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
+      <c r="L53" s="81"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3319,7 +3412,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
+      <c r="L54" s="81"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -3361,6 +3454,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3368,15 +3467,9 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T10 P8:P10 R8:R10 L8:L10 N8:N10 N12:N39 T12:T39 P12:P39 R12:R39 L12:L39" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T10 P8:P10 R8:R10 R12:R39 N8:N10 N12:N39 T12:T39 P12:P39 L26:L39" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Result</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11" xr:uid="{00000000-0002-0000-0100-000001000000}">

--- a/дом_раб_6-2тест-кейса.xlsx
+++ b/дом_раб_6-2тест-кейса.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA_тестер\GitHub\My_dav_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF2D510-6496-49DD-BFAA-204379FD5BC1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD375D70-A19D-429A-9147-70A7D4C6A74A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="0" windowWidth="23070" windowHeight="15420" tabRatio="682" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t>passed</t>
   </si>
@@ -971,6 +971,54 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -980,56 +1028,8 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="29" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1431,7 +1431,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L25" sqref="L25"/>
+      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1447,7 +1447,7 @@
     <col min="9" max="9" width="5.42578125" customWidth="1"/>
     <col min="10" max="10" width="1.140625" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="2.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="82" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="71" customWidth="1"/>
     <col min="13" max="13" width="2.140625" customWidth="1"/>
     <col min="14" max="14" width="13.28515625" customWidth="1"/>
     <col min="15" max="15" width="2.140625" customWidth="1"/>
@@ -1473,7 +1473,7 @@
         <v>13</v>
       </c>
       <c r="K1" s="10"/>
-      <c r="L1" s="73">
+      <c r="L1" s="63">
         <f>COUNTIF(L$8:L$39,"failed")</f>
         <v>0</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="K2" s="10"/>
-      <c r="L2" s="74">
+      <c r="L2" s="64">
         <f>COUNTIF(L$8:L$39,"passed")</f>
         <v>0</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>7</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="75"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="10"/>
       <c r="N3" s="21"/>
       <c r="O3" s="10"/>
@@ -1593,7 +1593,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="76"/>
+      <c r="L4" s="66"/>
       <c r="M4" s="10"/>
       <c r="O4" s="10"/>
       <c r="Q4" s="10"/>
@@ -1619,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="76" t="s">
+      <c r="L5" s="66" t="s">
         <v>4</v>
       </c>
       <c r="M5" s="10"/>
@@ -1647,43 +1647,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="68"/>
-      <c r="G6" s="66" t="s">
+      <c r="F6" s="72"/>
+      <c r="G6" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="70" t="s">
+      <c r="I6" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="64"/>
+      <c r="J6" s="80"/>
       <c r="K6" s="8"/>
-      <c r="L6" s="77" t="s">
+      <c r="L6" s="82" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="63" t="s">
+      <c r="N6" s="79" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="10"/>
-      <c r="P6" s="63"/>
+      <c r="P6" s="79"/>
       <c r="Q6" s="10"/>
-      <c r="R6" s="63"/>
+      <c r="R6" s="79"/>
       <c r="S6" s="10"/>
-      <c r="T6" s="63"/>
+      <c r="T6" s="79"/>
       <c r="U6" s="10"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1693,29 +1693,29 @@
     </row>
     <row r="7" spans="1:124" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="69"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="73"/>
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="65"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="81"/>
       <c r="K7" s="8"/>
-      <c r="L7" s="77"/>
+      <c r="L7" s="82"/>
       <c r="M7" s="10"/>
-      <c r="N7" s="63"/>
+      <c r="N7" s="79"/>
       <c r="O7" s="10"/>
-      <c r="P7" s="63"/>
+      <c r="P7" s="79"/>
       <c r="Q7" s="10"/>
-      <c r="R7" s="63"/>
+      <c r="R7" s="79"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="63"/>
+      <c r="T7" s="79"/>
       <c r="U7" s="10"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1745,7 +1745,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="19"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="79" t="s">
+      <c r="L8" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M8" s="10"/>
@@ -1783,7 +1783,7 @@
       <c r="I9" s="27"/>
       <c r="J9" s="19"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="79" t="s">
+      <c r="L9" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M9" s="10"/>
@@ -1821,7 +1821,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="19"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="79" t="s">
+      <c r="L10" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M10" s="10"/>
@@ -1859,7 +1859,7 @@
       <c r="I11" s="31"/>
       <c r="J11" s="30"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="79" t="s">
+      <c r="L11" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M11" s="32"/>
@@ -1995,7 +1995,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="19"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="79" t="s">
+      <c r="L12" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M12" s="10"/>
@@ -2033,7 +2033,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="19"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="79" t="s">
+      <c r="L13" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M13" s="10"/>
@@ -2071,7 +2071,7 @@
       <c r="I14" s="20"/>
       <c r="J14" s="19"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="79" t="s">
+      <c r="L14" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M14" s="10"/>
@@ -2109,7 +2109,7 @@
       <c r="I15" s="20"/>
       <c r="J15" s="19"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="79" t="s">
+      <c r="L15" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M15" s="10"/>
@@ -2147,7 +2147,7 @@
       <c r="I16" s="20"/>
       <c r="J16" s="19"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="79" t="s">
+      <c r="L16" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M16" s="10"/>
@@ -2185,7 +2185,7 @@
       <c r="I17" s="20"/>
       <c r="J17" s="19"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="79" t="s">
+      <c r="L17" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M17" s="10"/>
@@ -2225,7 +2225,7 @@
       <c r="I18" s="43"/>
       <c r="J18" s="42"/>
       <c r="K18" s="44"/>
-      <c r="L18" s="79" t="s">
+      <c r="L18" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M18" s="46"/>
@@ -2263,7 +2263,7 @@
       <c r="I19" s="43"/>
       <c r="J19" s="42"/>
       <c r="K19" s="44"/>
-      <c r="L19" s="79" t="s">
+      <c r="L19" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M19" s="46"/>
@@ -2301,7 +2301,7 @@
       <c r="I20" s="43"/>
       <c r="J20" s="42"/>
       <c r="K20" s="44"/>
-      <c r="L20" s="79" t="s">
+      <c r="L20" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="46"/>
@@ -2341,7 +2341,7 @@
       <c r="I21" s="43"/>
       <c r="J21" s="42"/>
       <c r="K21" s="44"/>
-      <c r="L21" s="79" t="s">
+      <c r="L21" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M21" s="46"/>
@@ -2379,7 +2379,7 @@
       <c r="I22" s="43"/>
       <c r="J22" s="42"/>
       <c r="K22" s="44"/>
-      <c r="L22" s="79" t="s">
+      <c r="L22" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M22" s="46"/>
@@ -2417,7 +2417,7 @@
       <c r="I23" s="43"/>
       <c r="J23" s="42"/>
       <c r="K23" s="44"/>
-      <c r="L23" s="79" t="s">
+      <c r="L23" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M23" s="46"/>
@@ -2455,7 +2455,7 @@
       <c r="I24" s="43"/>
       <c r="J24" s="42"/>
       <c r="K24" s="44"/>
-      <c r="L24" s="79" t="s">
+      <c r="L24" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M24" s="46"/>
@@ -2493,7 +2493,7 @@
       <c r="I25" s="43"/>
       <c r="J25" s="42"/>
       <c r="K25" s="44"/>
-      <c r="L25" s="79" t="s">
+      <c r="L25" s="68" t="s">
         <v>106</v>
       </c>
       <c r="M25" s="46"/>
@@ -2533,7 +2533,9 @@
       <c r="I26" s="55"/>
       <c r="J26" s="54"/>
       <c r="K26" s="56"/>
-      <c r="L26" s="78"/>
+      <c r="L26" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="M26" s="58"/>
       <c r="N26" s="57"/>
       <c r="O26" s="58"/>
@@ -2569,7 +2571,9 @@
       <c r="I27" s="55"/>
       <c r="J27" s="54"/>
       <c r="K27" s="56"/>
-      <c r="L27" s="78"/>
+      <c r="L27" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="M27" s="58"/>
       <c r="N27" s="62"/>
       <c r="O27" s="58"/>
@@ -2605,7 +2609,9 @@
       <c r="I28" s="55"/>
       <c r="J28" s="54"/>
       <c r="K28" s="56"/>
-      <c r="L28" s="78"/>
+      <c r="L28" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="M28" s="58"/>
       <c r="N28" s="62"/>
       <c r="O28" s="58"/>
@@ -2641,7 +2647,9 @@
       <c r="I29" s="20"/>
       <c r="J29" s="19"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="78"/>
+      <c r="L29" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="M29" s="10"/>
       <c r="N29" s="5"/>
       <c r="O29" s="10"/>
@@ -2677,7 +2685,9 @@
       <c r="I30" s="55"/>
       <c r="J30" s="54"/>
       <c r="K30" s="56"/>
-      <c r="L30" s="78"/>
+      <c r="L30" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="M30" s="58"/>
       <c r="N30" s="62"/>
       <c r="O30" s="58"/>
@@ -2713,7 +2723,9 @@
       <c r="I31" s="55"/>
       <c r="J31" s="54"/>
       <c r="K31" s="56"/>
-      <c r="L31" s="78"/>
+      <c r="L31" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="M31" s="58"/>
       <c r="N31" s="62"/>
       <c r="O31" s="58"/>
@@ -2751,7 +2763,9 @@
       <c r="I32" s="55"/>
       <c r="J32" s="54"/>
       <c r="K32" s="56"/>
-      <c r="L32" s="78"/>
+      <c r="L32" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="M32" s="58"/>
       <c r="N32" s="62"/>
       <c r="O32" s="58"/>
@@ -2787,7 +2801,9 @@
       <c r="I33" s="20"/>
       <c r="J33" s="19"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="78"/>
+      <c r="L33" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="M33" s="10"/>
       <c r="N33" s="5"/>
       <c r="O33" s="10"/>
@@ -2823,7 +2839,9 @@
       <c r="I34" s="20"/>
       <c r="J34" s="19"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="78"/>
+      <c r="L34" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="M34" s="10"/>
       <c r="N34" s="5"/>
       <c r="O34" s="10"/>
@@ -2859,7 +2877,9 @@
       <c r="I35" s="20"/>
       <c r="J35" s="19"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="78"/>
+      <c r="L35" s="68" t="s">
+        <v>106</v>
+      </c>
       <c r="M35" s="10"/>
       <c r="N35" s="5"/>
       <c r="O35" s="10"/>
@@ -2889,7 +2909,7 @@
       <c r="I36" s="20"/>
       <c r="J36" s="19"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="78"/>
+      <c r="L36" s="67"/>
       <c r="M36" s="10"/>
       <c r="N36" s="5"/>
       <c r="O36" s="10"/>
@@ -2919,7 +2939,7 @@
       <c r="I37" s="20"/>
       <c r="J37" s="19"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="78"/>
+      <c r="L37" s="67"/>
       <c r="M37" s="10"/>
       <c r="N37" s="5"/>
       <c r="O37" s="10"/>
@@ -2949,7 +2969,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="78"/>
+      <c r="L38" s="67"/>
       <c r="M38" s="10"/>
       <c r="N38" s="5"/>
       <c r="O38" s="10"/>
@@ -2979,7 +2999,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="25"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="78"/>
+      <c r="L39" s="67"/>
       <c r="M39" s="10"/>
       <c r="N39" s="5"/>
       <c r="O39" s="10"/>
@@ -3012,7 +3032,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
-      <c r="L40" s="80"/>
+      <c r="L40" s="69"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
@@ -3045,7 +3065,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
-      <c r="L41" s="80"/>
+      <c r="L41" s="69"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
@@ -3078,7 +3098,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
-      <c r="L42" s="80"/>
+      <c r="L42" s="69"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
@@ -3105,7 +3125,7 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="81"/>
+      <c r="L43" s="70"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -3132,7 +3152,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="81"/>
+      <c r="L44" s="70"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -3160,7 +3180,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="81"/>
+      <c r="L45" s="70"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -3188,7 +3208,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="81"/>
+      <c r="L46" s="70"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -3216,7 +3236,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="81"/>
+      <c r="L47" s="70"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -3244,7 +3264,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="81"/>
+      <c r="L48" s="70"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -3272,7 +3292,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="81"/>
+      <c r="L49" s="70"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -3300,7 +3320,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="81"/>
+      <c r="L50" s="70"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -3328,7 +3348,7 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="81"/>
+      <c r="L51" s="70"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -3356,7 +3376,7 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="81"/>
+      <c r="L52" s="70"/>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -3384,7 +3404,7 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="81"/>
+      <c r="L53" s="70"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -3412,7 +3432,7 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="81"/>
+      <c r="L54" s="70"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -3454,12 +3474,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="G6:G7"/>
@@ -3467,9 +3481,15 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="C6:C7"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T10 P8:P10 R8:R10 R12:R39 N8:N10 N12:N39 T12:T39 P12:P39 L26:L39" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="T8:T10 P8:P10 R8:R10 R12:R39 N8:N10 N12:N39 T12:T39 P12:P39 L36:L39" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Result</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" sqref="AT11 AH11 AF11 Z11 X11 V11 T11 R11 P11 N11 CJ11 CB11 DJ11:DT11 DH11 DF11 DD11 DB11 CZ11 CX11 CV11 CT11 CR11 CP11 CN11 CL11 CH11 CF11 BZ11 BX11 BV11 BT11 BR11 BP11 BN11 BL11 BJ11 BH11 BF11 BD11 BB11 AZ11 AX11 AV11 AR11 AP11 AN11 AL11 AJ11 AD11 AB11" xr:uid="{00000000-0002-0000-0100-000001000000}">
